--- a/biology/Zoologie/Felimare_villafranca/Felimare_villafranca.xlsx
+++ b/biology/Zoologie/Felimare_villafranca/Felimare_villafranca.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Doris de Villefranche
 Le Doris de Villefranche, Felimare villafranca, est un nudibranche de la famille des Chromodorididae. Cette espèce est bleue et striée de lignes jaunes et blanches irrégulières. Elle se nourrit exclusivement de spongiaires.
